--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
@@ -55,184 +58,262 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
     <t>via</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>toilet</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -590,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,28 +761,28 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9482758620689655</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,28 +808,28 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M4">
         <v>111</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -759,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8082191780821918</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C5">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,31 +858,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8976377952755905</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5466666666666666</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,31 +908,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8899082568807339</v>
+        <v>0.8984375</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,49 +940,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4883268482490272</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C7">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8785714285714286</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L7">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="N7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,347 +990,323 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0166369578134284</v>
+        <v>0.5329457364341085</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="D8">
-        <v>488</v>
+        <v>275</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1655</v>
+        <v>241</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.01178861788617886</v>
-      </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>676</v>
-      </c>
-      <c r="E9">
-        <v>0.96</v>
-      </c>
-      <c r="F9">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2431</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8205128205128205</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L9">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8080808080808081</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8031914893617021</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="L11">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7719298245614035</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7709251101321586</v>
+        <v>0.825</v>
       </c>
       <c r="L13">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="M13">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7640449438202247</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L14">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7077464788732394</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L15">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="M15">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7006172839506173</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L16">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.696969696969697</v>
+        <v>0.7824267782426778</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6888888888888889</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6595744680851063</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1261,47 +1318,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6588235294117647</v>
+        <v>0.7176470588235294</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1313,125 +1370,125 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5483870967741935</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N22">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5189873417721519</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L23">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5052631578947369</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4802955665024631</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="L25">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>211</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4608695652173913</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1443,73 +1500,73 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4545454545454545</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L27">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4347826086956522</v>
+        <v>0.5625</v>
       </c>
       <c r="L28">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.417910447761194</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1521,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.390625</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1547,99 +1604,99 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3739669421487603</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L31">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>303</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3703703703703703</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.356687898089172</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="L33">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3516483516483517</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1651,281 +1708,281 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3464373464373464</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L35">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>266</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3213114754098361</v>
+        <v>0.4907975460122699</v>
       </c>
       <c r="L36">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="M36">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>207</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3195876288659794</v>
+        <v>0.4880382775119617</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3185185185185185</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3118279569892473</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="N39">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.3</v>
+        <v>0.4604651162790698</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.2979351032448377</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="L41">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N41">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>238</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.2945736434108527</v>
+        <v>0.4213836477987422</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.2941176470588235</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="L43">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="M43">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>624</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2926829268292683</v>
+        <v>0.4135802469135803</v>
       </c>
       <c r="L44">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="M44">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2695652173913043</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1937,47 +1994,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>168</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2685185185185185</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M46">
         <v>33</v>
       </c>
       <c r="N46">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.2672413793103448</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1989,47 +2046,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2463605823068309</v>
+        <v>0.3740458015267176</v>
       </c>
       <c r="L48">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="M48">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>673</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2448979591836735</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="L49">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2041,99 +2098,99 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2394366197183098</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L50">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>162</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2174940898345154</v>
+        <v>0.3533653846153846</v>
       </c>
       <c r="L51">
-        <v>460</v>
+        <v>147</v>
       </c>
       <c r="M51">
-        <v>488</v>
+        <v>147</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1655</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2102014294996751</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L52">
-        <v>647</v>
+        <v>80</v>
       </c>
       <c r="M52">
-        <v>676</v>
+        <v>80</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2431</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.2097902097902098</v>
+        <v>0.3445378151260504</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2145,21 +2202,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.1722846441947566</v>
+        <v>0.3441860465116279</v>
       </c>
       <c r="L54">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="M54">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2171,125 +2228,125 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1446808510638298</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>201</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.09230769230769231</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>295</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.05882352941176471</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="M57">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="N57">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>608</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.05542725173210162</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L58">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M58">
         <v>49</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>818</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.054673721340388</v>
+        <v>0.329512893982808</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="M59">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2301,59 +2358,735 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>536</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.034375</v>
+        <v>0.3284671532846715</v>
       </c>
       <c r="L60">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M60">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>3090</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61">
+        <v>0.3266219239373602</v>
+      </c>
+      <c r="L61">
+        <v>292</v>
+      </c>
+      <c r="M61">
+        <v>292</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62">
+        <v>0.3125</v>
+      </c>
+      <c r="L62">
+        <v>35</v>
+      </c>
+      <c r="M62">
+        <v>35</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K63">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L63">
+        <v>44</v>
+      </c>
+      <c r="M63">
+        <v>44</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64">
+        <v>0.3069306930693069</v>
+      </c>
+      <c r="L64">
+        <v>31</v>
+      </c>
+      <c r="M64">
+        <v>31</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65">
+        <v>0.2959183673469388</v>
+      </c>
+      <c r="L65">
+        <v>29</v>
+      </c>
+      <c r="M65">
+        <v>29</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66">
+        <v>0.2946428571428572</v>
+      </c>
+      <c r="L66">
+        <v>33</v>
+      </c>
+      <c r="M66">
+        <v>33</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K67">
+        <v>0.2918978912319645</v>
+      </c>
+      <c r="L67">
+        <v>263</v>
+      </c>
+      <c r="M67">
+        <v>263</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68">
+        <v>0.290519877675841</v>
+      </c>
+      <c r="L68">
+        <v>95</v>
+      </c>
+      <c r="M68">
+        <v>95</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K69">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="L69">
+        <v>27</v>
+      </c>
+      <c r="M69">
+        <v>27</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>72</v>
       </c>
-      <c r="K61">
-        <v>0.02327586206896552</v>
-      </c>
-      <c r="L61">
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K70">
+        <v>0.2677165354330709</v>
+      </c>
+      <c r="L70">
+        <v>34</v>
+      </c>
+      <c r="M70">
+        <v>34</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K71">
+        <v>0.2652075957515288</v>
+      </c>
+      <c r="L71">
+        <v>824</v>
+      </c>
+      <c r="M71">
+        <v>824</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72">
+        <v>0.2538497433504433</v>
+      </c>
+      <c r="L72">
+        <v>544</v>
+      </c>
+      <c r="M72">
+        <v>544</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73">
+        <v>0.2477064220183486</v>
+      </c>
+      <c r="L73">
         <v>27</v>
       </c>
-      <c r="M61">
-        <v>28</v>
-      </c>
-      <c r="N61">
-        <v>0.96</v>
-      </c>
-      <c r="O61">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1133</v>
+      <c r="M73">
+        <v>27</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K74">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="L74">
+        <v>33</v>
+      </c>
+      <c r="M74">
+        <v>33</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K75">
+        <v>0.2389380530973451</v>
+      </c>
+      <c r="L75">
+        <v>27</v>
+      </c>
+      <c r="M75">
+        <v>27</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K76">
+        <v>0.2324324324324324</v>
+      </c>
+      <c r="L76">
+        <v>43</v>
+      </c>
+      <c r="M76">
+        <v>43</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K77">
+        <v>0.2209737827715356</v>
+      </c>
+      <c r="L77">
+        <v>59</v>
+      </c>
+      <c r="M77">
+        <v>59</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K78">
+        <v>0.2123076923076923</v>
+      </c>
+      <c r="L78">
+        <v>138</v>
+      </c>
+      <c r="M78">
+        <v>138</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K79">
+        <v>0.2045855379188712</v>
+      </c>
+      <c r="L79">
+        <v>116</v>
+      </c>
+      <c r="M79">
+        <v>116</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K80">
+        <v>0.1983122362869198</v>
+      </c>
+      <c r="L80">
+        <v>47</v>
+      </c>
+      <c r="M80">
+        <v>47</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K81">
+        <v>0.1649365628604383</v>
+      </c>
+      <c r="L81">
+        <v>143</v>
+      </c>
+      <c r="M81">
+        <v>143</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K82">
+        <v>0.1569767441860465</v>
+      </c>
+      <c r="L82">
+        <v>27</v>
+      </c>
+      <c r="M82">
+        <v>27</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K83">
+        <v>0.12</v>
+      </c>
+      <c r="L83">
+        <v>27</v>
+      </c>
+      <c r="M83">
+        <v>27</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K84">
+        <v>0.1143790849673203</v>
+      </c>
+      <c r="L84">
+        <v>35</v>
+      </c>
+      <c r="M84">
+        <v>35</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K85">
+        <v>0.075</v>
+      </c>
+      <c r="L85">
+        <v>27</v>
+      </c>
+      <c r="M85">
+        <v>27</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="L86">
+        <v>54</v>
+      </c>
+      <c r="M86">
+        <v>54</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87">
+        <v>0.04561074664167448</v>
+      </c>
+      <c r="L87">
+        <v>146</v>
+      </c>
+      <c r="M87">
+        <v>146</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>3055</v>
       </c>
     </row>
   </sheetData>
